--- a/classification_report.xlsx
+++ b/classification_report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSE RGUKT\Desktop\STANCE DETECTION(PHASE2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CSE RGUKT\Pictures\p stance and other\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="vast" sheetId="1" r:id="rId1"/>
@@ -427,8 +427,8 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -567,6 +567,27 @@
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="C6">
+        <v>0.70169999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.66830000000000001</v>
+      </c>
+      <c r="E6">
+        <v>0.6462</v>
+      </c>
+      <c r="F6">
+        <v>15933.98</v>
+      </c>
+      <c r="G6">
+        <v>401.48000000000002</v>
+      </c>
+      <c r="H6">
+        <v>140013315</v>
       </c>
     </row>
   </sheetData>
@@ -1093,16 +1114,6 @@
         <v>140013315</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7"/>
-    </row>
   </sheetData>
 </worksheet>
 </file>
@@ -1110,7 +1121,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
